--- a/17.- X2. Liquidity Funding Risk.xlsx
+++ b/17.- X2. Liquidity Funding Risk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B333A05-8DD7-8349-8D4B-EBEADF9E5FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216CCE46-8E35-6D4E-8C12-67F585E32FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{443ECD19-7701-7346-B2F8-5276DA26F10F}"/>
   </bookViews>
@@ -369,10 +369,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -892,7 +892,7 @@
   <dimension ref="A2:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,57 +1155,57 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1255,14 +1255,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C5" s="9" t="s">

--- a/17.- X2. Liquidity Funding Risk.xlsx
+++ b/17.- X2. Liquidity Funding Risk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216CCE46-8E35-6D4E-8C12-67F585E32FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A73A3A-78A4-FF42-A710-127D5A33FBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{443ECD19-7701-7346-B2F8-5276DA26F10F}"/>
+    <workbookView xWindow="5900" yWindow="740" windowWidth="23500" windowHeight="18380" activeTab="1" xr2:uid="{443ECD19-7701-7346-B2F8-5276DA26F10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" r:id="rId1"/>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE37323D-7C02-B044-85EF-1A87336943D8}">
   <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,8 +979,8 @@
         <v>12785.52</v>
       </c>
       <c r="H4" s="11">
-        <f>9447.939+350*(1+0.05)+3000*0.075/12*6+1000*(1+0.05)</f>
-        <v>10977.939</v>
+        <f>9447.939+350*(1+0.05)+3000*0.075/12*6</f>
+        <v>9927.9390000000003</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="H5" s="21">
         <f t="shared" si="0"/>
-        <v>4156.4498000000003</v>
+        <v>5206.4498000000003</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1025,8 +1025,8 @@
         <v>13</v>
       </c>
       <c r="C7" s="23">
-        <f>2956+6139.63+35+50+67-1295+537+259+187+53+350+3000+1000</f>
-        <v>13338.630000000001</v>
+        <f>2956+6139.63+35+50+67-1295+537+259+187+53+350+3000</f>
+        <v>12338.630000000001</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C9" s="25">
         <f>C7+C8</f>
-        <v>13338.630000000001</v>
+        <v>12338.630000000001</v>
       </c>
       <c r="D9" s="25">
         <f t="shared" ref="D9:H9" si="1">D7+D8</f>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C11" s="26">
         <f>C5+C9</f>
-        <v>3173.9764000000014</v>
+        <v>2173.9764000000014</v>
       </c>
       <c r="D11" s="26">
         <f>D5+D9</f>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H11" s="26">
         <f t="shared" si="2"/>
-        <v>4156.4498000000003</v>
+        <v>5206.4498000000003</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1122,27 +1122,27 @@
       </c>
       <c r="C12" s="21">
         <f>C11</f>
-        <v>3173.9764000000014</v>
+        <v>2173.9764000000014</v>
       </c>
       <c r="D12" s="21">
         <f>C12+D11</f>
-        <v>1257.1209611000013</v>
+        <v>257.1209611000013</v>
       </c>
       <c r="E12" s="21">
         <f t="shared" ref="E12:H12" si="3">D12+E11</f>
-        <v>4964.5396361000021</v>
+        <v>3964.5396361000021</v>
       </c>
       <c r="F12" s="21">
         <f t="shared" si="3"/>
-        <v>3739.9815861000043</v>
+        <v>2739.9815861000043</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>878.5639861000036</v>
+        <v>-121.4360138999964</v>
       </c>
       <c r="H12" s="21">
         <f t="shared" si="3"/>
-        <v>5035.0137861000039</v>
+        <v>5085.0137861000039</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C34">
         <f>SUM(C9:E9)/SUM(C4:E4)</f>
-        <v>0.7553108248501349</v>
+        <v>0.72015332004996213</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
